--- a/docs/source/recursos/industrial/tabla_cat_fv_ind_pesm_socio_cobertura_usv_svi_16cats.xlsx
+++ b/docs/source/recursos/industrial/tabla_cat_fv_ind_pesm_socio_cobertura_usv_svi_16cats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox (LANCIS)\FOMIX\fmx_estudio_tecnico\diagnostico\talleres\sphinx\docs\source\recursos\industrial\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LANCIS\Dropbox (LANCIS)\FOMIX\fmx_estudio_tecnico\diagnostico\talleres\sphinx\docs\source\recursos\industrial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{709814FB-7D00-4F7D-BEFE-89A150D424D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD333CEF-A406-4BAE-90B6-D37F62C834FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tabla_cat_fv_ind_pesm_socio_cob" sheetId="1" r:id="rId1"/>
@@ -70,9 +70,6 @@
     <t>Selva mediana</t>
   </si>
   <si>
-    <t>Sábana</t>
-  </si>
-  <si>
     <t>Cuerpo de agua</t>
   </si>
   <si>
@@ -95,12 +92,15 @@
   </si>
   <si>
     <t>ND</t>
+  </si>
+  <si>
+    <t>Sabana</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -946,11 +946,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1100,7 +1100,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>12</v>
@@ -1114,10 +1114,10 @@
         <v>6</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -1128,10 +1128,10 @@
         <v>7</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
@@ -1142,10 +1142,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
@@ -1156,10 +1156,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
@@ -1170,10 +1170,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
@@ -1184,10 +1184,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D17" s="1">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D18" s="1">
         <v>0</v>
